--- a/biology/Virologie/Cytorhabdovirus/Cytorhabdovirus.xlsx
+++ b/biology/Virologie/Cytorhabdovirus/Cytorhabdovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cytorhabdovirus est un genre de virus de la famille des Rhabdoviridae qui comprend vingt-trois espèces acceptées par l'ICTV. Ce sont des virus à ARN à simple brin à polarité négative, classés dans le groupe V de la classification Baltimore. Ces virus infectent des plantes (phytovirus) mono- et dicotylédones, et également certaines espèces d'insectes. Ils se répliquent dans le cytoplasme des cellules infectées tant chez les plantes que chez les insectes.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Cytorhabdovirus » dérive du grec ancien, κύτος (kytos), la cellule, en référence à la localisation cytoplasmique des complexes de réplication virale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Cytorhabdovirus » dérive du grec ancien, κύτος (kytos), la cellule, en référence à la localisation cytoplasmique des complexes de réplication virale.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions sont des particules enveloppées, bacilliformes, de 60 à 75 nm de diamètre et 200 à 350 nm de long[2].
-Le génome est constitué d'une molécule d'ARN à simple brin de sens négatif, linéaire, d'une taille d'environ 13 kb. Cet ARN code six à neuf protéines[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions sont des particules enveloppées, bacilliformes, de 60 à 75 nm de diamètre et 200 à 350 nm de long.
+Le génome est constitué d'une molécule d'ARN à simple brin de sens négatif, linéaire, d'une taille d'environ 13 kb. Cet ARN code six à neuf protéines.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cytorhabdovirus infectant les plantes sont transmis par des insectes-vecteurs de l'ordre des Hémiptères : des pucerons (LNYV, ADV), des fulgores (NCMV, BYSMV) ou des cicadelles (RSMV).
-Certains virus sont également transmis lors de la multiplication végétative, et certains peuvent également être transmis par inoculation mécanique de la sève infectée. La transmission par les graines n'a pas été observée. Ces virus se répliquent toujours aussi bien dans les cellules de l'insecte-vecteur ainsi que chez la plante-hôte[2].
+Certains virus sont également transmis lors de la multiplication végétative, et certains peuvent également être transmis par inoculation mécanique de la sève infectée. La transmission par les graines n'a pas été observée. Ces virus se répliquent toujours aussi bien dans les cellules de l'insecte-vecteur ainsi que chez la plante-hôte.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (30 janvier 2021)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (30 janvier 2021) :
 Alfalfa dwarf cytorhabdovirus (ADV)
 Barley yellow striate mosaic cytorhabdovirus (BYSMV)
 Cabbage cytorhabdovirus (CCyV-1)
